--- a/Predictive_Analysis.xlsx
+++ b/Predictive_Analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Month</t>
   </si>
@@ -148,13 +148,34 @@
     <t>Y=cst+B1*X1+B2*X2+…+Bn*Xn</t>
   </si>
   <si>
-    <t>based on regression</t>
-  </si>
-  <si>
-    <t>based on sum function</t>
-  </si>
-  <si>
     <t>regression function</t>
+  </si>
+  <si>
+    <t>p-value(intercept)&gt;0.05-&gt;there is a correlation beetween the dependent and independent variables</t>
+  </si>
+  <si>
+    <t>null-hypothesis is rejected</t>
+  </si>
+  <si>
+    <t>Case 1:</t>
+  </si>
+  <si>
+    <t>Case 2:</t>
+  </si>
+  <si>
+    <t>If we would have accepted to have a correlation between total prices variable and any of the products (case 1), the estimated costs for the 25th month would have been:</t>
+  </si>
+  <si>
+    <t>If we want to accept the null-hypothesis, that there is no correlation between the dependent variable (prices) and the independent</t>
+  </si>
+  <si>
+    <t>variables (quantity A, B, C),  we have to ignore A product because it influences the intercept's value:</t>
+  </si>
+  <si>
+    <t>The A products influences the outcome of the total prices because there are big variations in the data</t>
+  </si>
+  <si>
+    <t>while B and C are more stable and as a final result we get a smaller total cost.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -232,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +281,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,10 +516,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -495,22 +528,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,15 +552,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -542,16 +575,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,6 +619,2780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Price-prediction'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Price-prediction'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10768.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7581.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37044.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47382.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65474.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47468.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42213.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40490.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37044.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37044.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44367.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44194.950000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43419.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41955.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="311817984"/>
+        <c:axId val="311822336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311817984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311822336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311822336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311817984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Price-prediction'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Price-prediction'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9255.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7600.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9406.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9782.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9782.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11287.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11287.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10836</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10384.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10158.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11287.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11663.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9180.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8352.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8804.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9406.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9782.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="311816352"/>
+        <c:axId val="311822880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311816352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311822880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311822880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311816352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Price-prediction'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Price-prediction'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="311826688"/>
+        <c:axId val="311823968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311826688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311823968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311823968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311826688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>187641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>187641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512762</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,32 +3682,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -923,7 +3749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -937,19 +3763,19 @@
         <v>221</v>
       </c>
       <c r="E2" s="7">
-        <f>B2*$J$2</f>
+        <f t="shared" ref="E2:E25" si="0">B2*$J$2</f>
         <v>8615</v>
       </c>
       <c r="F2" s="7">
-        <f>C2*$K$2</f>
+        <f t="shared" ref="F2:F25" si="1">C2*$K$2</f>
         <v>9030</v>
       </c>
       <c r="G2" s="31">
-        <f>D2*$L$2</f>
+        <f t="shared" ref="G2:G25" si="2">D2*$L$2</f>
         <v>11050</v>
       </c>
       <c r="H2" s="27">
-        <f>SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H25" si="3">SUM(E2:G2)</f>
         <v>28695</v>
       </c>
       <c r="J2" s="20">
@@ -968,7 +3794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -982,23 +3808,23 @@
         <v>215</v>
       </c>
       <c r="E3" s="7">
-        <f>B3*$J$2</f>
+        <f t="shared" si="0"/>
         <v>10768.75</v>
       </c>
       <c r="F3" s="7">
-        <f>C3*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9255.75</v>
       </c>
       <c r="G3" s="32">
-        <f>D3*$L$2</f>
+        <f t="shared" si="2"/>
         <v>10750</v>
       </c>
       <c r="H3" s="27">
-        <f>SUM(E3:G3)</f>
+        <f t="shared" si="3"/>
         <v>30774.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -1012,26 +3838,29 @@
         <v>243</v>
       </c>
       <c r="E4" s="9">
-        <f>B4*$J$2</f>
+        <f t="shared" si="0"/>
         <v>7581.2000000000007</v>
       </c>
       <c r="F4" s="7">
-        <f>C4*$K$2</f>
+        <f t="shared" si="1"/>
         <v>7600.25</v>
       </c>
       <c r="G4" s="32">
-        <f>D4*$L$2</f>
+        <f t="shared" si="2"/>
         <v>12150</v>
       </c>
       <c r="H4" s="28">
-        <f>SUM(E4:G4)</f>
+        <f t="shared" si="3"/>
         <v>27331.45</v>
       </c>
       <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -1045,23 +3874,23 @@
         <v>230</v>
       </c>
       <c r="E5" s="7">
-        <f>B5*$J$2</f>
+        <f t="shared" si="0"/>
         <v>20676</v>
       </c>
       <c r="F5" s="9">
-        <f>C5*$K$2</f>
+        <f t="shared" si="1"/>
         <v>6020</v>
       </c>
       <c r="G5" s="32">
-        <f>D5*$L$2</f>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="H5" s="27">
-        <f>SUM(E5:G5)</f>
+        <f t="shared" si="3"/>
         <v>38196</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -1075,27 +3904,27 @@
         <v>189</v>
       </c>
       <c r="E6" s="7">
-        <f>B6*$J$2</f>
+        <f t="shared" si="0"/>
         <v>25845</v>
       </c>
       <c r="F6" s="7">
-        <f>C6*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9030</v>
       </c>
       <c r="G6" s="33">
-        <f>D6*$L$2</f>
+        <f t="shared" si="2"/>
         <v>9450</v>
       </c>
       <c r="H6" s="27">
-        <f>SUM(E6:G6)</f>
+        <f t="shared" si="3"/>
         <v>44325</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="K6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -1109,29 +3938,29 @@
         <v>202</v>
       </c>
       <c r="E7" s="7">
-        <f>B7*$J$2</f>
+        <f t="shared" si="0"/>
         <v>24122</v>
       </c>
       <c r="F7" s="7">
-        <f>C7*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9406.25</v>
       </c>
       <c r="G7" s="32">
-        <f>D7*$L$2</f>
+        <f t="shared" si="2"/>
         <v>10100</v>
       </c>
       <c r="H7" s="27">
-        <f>SUM(E7:G7)</f>
+        <f t="shared" si="3"/>
         <v>43628.25</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="23">
+      <c r="L7" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -1145,29 +3974,29 @@
         <v>215</v>
       </c>
       <c r="E8" s="7">
-        <f>B8*$J$2</f>
+        <f t="shared" si="0"/>
         <v>37044.5</v>
       </c>
       <c r="F8" s="7">
-        <f>C8*$K$2</f>
+        <f t="shared" si="1"/>
         <v>10535</v>
       </c>
       <c r="G8" s="32">
-        <f>D8*$L$2</f>
+        <f t="shared" si="2"/>
         <v>10750</v>
       </c>
       <c r="H8" s="27">
-        <f>SUM(E8:G8)</f>
+        <f t="shared" si="3"/>
         <v>58329.5</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="23">
+      <c r="L8" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -1181,29 +4010,29 @@
         <v>220</v>
       </c>
       <c r="E9" s="7">
-        <f>B9*$J$2</f>
+        <f t="shared" si="0"/>
         <v>47382.5</v>
       </c>
       <c r="F9" s="7">
-        <f>C9*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9782.5</v>
       </c>
       <c r="G9" s="32">
-        <f>D9*$L$2</f>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="H9" s="27">
-        <f>SUM(E9:G9)</f>
+        <f t="shared" si="3"/>
         <v>68165</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="23">
+      <c r="L9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -1217,29 +4046,29 @@
         <v>220</v>
       </c>
       <c r="E10" s="7">
-        <f>B10*$J$2</f>
+        <f t="shared" si="0"/>
         <v>43075</v>
       </c>
       <c r="F10" s="7">
-        <f>C10*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9782.5</v>
       </c>
       <c r="G10" s="32">
-        <f>D10*$L$2</f>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="H10" s="27">
-        <f>SUM(E10:G10)</f>
+        <f t="shared" si="3"/>
         <v>63857.5</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="23">
+      <c r="L10" s="23">
         <v>8.0170798534967408E-12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -1253,29 +4082,29 @@
         <v>252</v>
       </c>
       <c r="E11" s="7">
-        <f>B11*$J$2</f>
+        <f t="shared" si="0"/>
         <v>43075</v>
       </c>
       <c r="F11" s="7">
-        <f>C11*$K$2</f>
+        <f t="shared" si="1"/>
         <v>11287.5</v>
       </c>
       <c r="G11" s="32">
-        <f>D11*$L$2</f>
+        <f t="shared" si="2"/>
         <v>12600</v>
       </c>
       <c r="H11" s="27">
-        <f>SUM(E11:G11)</f>
+        <f t="shared" si="3"/>
         <v>66962.5</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="K11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="24">
+      <c r="L11" s="24">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -1289,23 +4118,23 @@
         <v>245</v>
       </c>
       <c r="E12" s="11">
-        <f>B12*$J$2</f>
+        <f t="shared" si="0"/>
         <v>65474.000000000007</v>
       </c>
       <c r="F12" s="11">
-        <f>C12*$K$2</f>
+        <f t="shared" si="1"/>
         <v>15050</v>
       </c>
       <c r="G12" s="32">
-        <f>D12*$L$2</f>
+        <f t="shared" si="2"/>
         <v>12250</v>
       </c>
       <c r="H12" s="29">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" si="3"/>
         <v>92774</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -1319,26 +4148,27 @@
         <v>255</v>
       </c>
       <c r="E13" s="7">
-        <f>B13*$J$2</f>
+        <f t="shared" si="0"/>
         <v>44798</v>
       </c>
       <c r="F13" s="7">
-        <f>C13*$K$2</f>
+        <f t="shared" si="1"/>
         <v>13545</v>
       </c>
       <c r="G13" s="32">
-        <f>D13*$L$2</f>
+        <f t="shared" si="2"/>
         <v>12750</v>
       </c>
       <c r="H13" s="27">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="3"/>
         <v>71093</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>21</v>
       </c>
+      <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -1352,39 +4182,39 @@
         <v>260</v>
       </c>
       <c r="E14" s="7">
-        <f>B14*$J$2</f>
+        <f t="shared" si="0"/>
         <v>47468.65</v>
       </c>
       <c r="F14" s="7">
-        <f>C14*$K$2</f>
+        <f t="shared" si="1"/>
         <v>11287.5</v>
       </c>
       <c r="G14" s="32">
-        <f>D14*$L$2</f>
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
       <c r="H14" s="27">
-        <f>SUM(E14:G14)</f>
+        <f t="shared" si="3"/>
         <v>71756.149999999994</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="O14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -1398,41 +4228,41 @@
         <v>290</v>
       </c>
       <c r="E15" s="7">
-        <f>B15*$J$2</f>
+        <f t="shared" si="0"/>
         <v>42213.5</v>
       </c>
       <c r="F15" s="7">
-        <f>C15*$K$2</f>
+        <f t="shared" si="1"/>
         <v>10535</v>
       </c>
       <c r="G15" s="32">
-        <f>D15*$L$2</f>
+        <f t="shared" si="2"/>
         <v>14500</v>
       </c>
       <c r="H15" s="27">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="3"/>
         <v>67248.5</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="23">
+      <c r="L15" s="23">
         <v>3</v>
       </c>
-      <c r="L15" s="23">
+      <c r="M15" s="23">
         <v>6078921062.8190622</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <v>2026307020.9396875</v>
       </c>
-      <c r="N15" s="23">
+      <c r="O15" s="23">
         <v>3.1526287408179463E+31</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <v>6.6157188005076438E-307</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -1446,37 +4276,37 @@
         <v>300</v>
       </c>
       <c r="E16" s="7">
-        <f>B16*$J$2</f>
+        <f t="shared" si="0"/>
         <v>40490.5</v>
       </c>
       <c r="F16" s="7">
-        <f>C16*$K$2</f>
+        <f t="shared" si="1"/>
         <v>10836</v>
       </c>
       <c r="G16" s="32">
-        <f>D16*$L$2</f>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="H16" s="27">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="3"/>
         <v>66326.5</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="23">
+      <c r="L16" s="23">
         <v>20</v>
       </c>
-      <c r="L16" s="23">
+      <c r="M16" s="23">
         <v>1.2854713875468663E-21</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="23">
         <v>6.4273569377343314E-23</v>
       </c>
-      <c r="N16" s="23"/>
       <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -1490,35 +4320,35 @@
         <v>300</v>
       </c>
       <c r="E17" s="7">
-        <f>B17*$J$2</f>
+        <f t="shared" si="0"/>
         <v>37044.5</v>
       </c>
       <c r="F17" s="7">
-        <f>C17*$K$2</f>
+        <f t="shared" si="1"/>
         <v>10384.5</v>
       </c>
       <c r="G17" s="32">
-        <f>D17*$L$2</f>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="H17" s="27">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="3"/>
         <v>62429</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="K17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="24">
+      <c r="L17" s="24">
         <v>23</v>
       </c>
-      <c r="L17" s="24">
+      <c r="M17" s="24">
         <v>6078921062.8190622</v>
       </c>
-      <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -1532,23 +4362,23 @@
         <v>290</v>
       </c>
       <c r="E18" s="7">
-        <f>B18*$J$2</f>
+        <f t="shared" si="0"/>
         <v>37044.5</v>
       </c>
       <c r="F18" s="7">
-        <f>C18*$K$2</f>
+        <f t="shared" si="1"/>
         <v>10158.75</v>
       </c>
       <c r="G18" s="32">
-        <f>D18*$L$2</f>
+        <f t="shared" si="2"/>
         <v>14500</v>
       </c>
       <c r="H18" s="27">
-        <f>SUM(E18:G18)</f>
+        <f t="shared" si="3"/>
         <v>61703.25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -1562,48 +4392,48 @@
         <v>310</v>
       </c>
       <c r="E19" s="7">
-        <f>B19*$J$2</f>
+        <f t="shared" si="0"/>
         <v>41352</v>
       </c>
       <c r="F19" s="7">
-        <f>C19*$K$2</f>
+        <f t="shared" si="1"/>
         <v>11287.5</v>
       </c>
       <c r="G19" s="32">
-        <f>D19*$L$2</f>
+        <f t="shared" si="2"/>
         <v>15500</v>
       </c>
       <c r="H19" s="27">
-        <f>SUM(E19:G19)</f>
+        <f t="shared" si="3"/>
         <v>68139.5</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="M19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="N19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="O19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="P19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="Q19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="R19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="S19" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -1617,50 +4447,50 @@
         <v>300</v>
       </c>
       <c r="E20" s="7">
-        <f>B20*$J$2</f>
+        <f t="shared" si="0"/>
         <v>44798</v>
       </c>
       <c r="F20" s="7">
-        <f>C20*$K$2</f>
+        <f t="shared" si="1"/>
         <v>11663.75</v>
       </c>
       <c r="G20" s="32">
-        <f>D20*$L$2</f>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="H20" s="27">
-        <f>SUM(E20:G20)</f>
+        <f t="shared" si="3"/>
         <v>71461.75</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="K20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="23">
+      <c r="L20" s="23">
         <v>1.6370904631912708E-11</v>
       </c>
-      <c r="L20" s="23">
+      <c r="M20" s="23">
         <v>1.5623770781452581E-11</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="23">
         <v>1.0478203284540677</v>
       </c>
-      <c r="N20" s="23">
+      <c r="O20" s="23">
         <v>0.30721978113806492</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>-1.6219710126657809E-11</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="23">
         <v>4.8961519390483225E-11</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="23">
         <v>-1.6219710126657809E-11</v>
       </c>
-      <c r="R20" s="23">
+      <c r="S20" s="23">
         <v>4.8961519390483225E-11</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>20</v>
       </c>
@@ -1674,50 +4504,50 @@
         <v>315</v>
       </c>
       <c r="E21" s="7">
-        <f>B21*$J$2</f>
+        <f t="shared" si="0"/>
         <v>43075</v>
       </c>
       <c r="F21" s="7">
-        <f>C21*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9180.5</v>
       </c>
       <c r="G21" s="32">
-        <f>D21*$L$2</f>
+        <f t="shared" si="2"/>
         <v>15750</v>
       </c>
       <c r="H21" s="27">
-        <f>SUM(E21:G21)</f>
+        <f t="shared" si="3"/>
         <v>68005.5</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="23">
+      <c r="L21" s="23">
         <v>86.14999999999992</v>
       </c>
-      <c r="L21" s="23">
+      <c r="M21" s="23">
         <v>1.6778639585669617E-14</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="23">
         <v>5134504472792856</v>
       </c>
-      <c r="N21" s="23">
+      <c r="O21" s="23">
         <v>1.112571329390411E-302</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>86.149999999999892</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="23">
         <v>86.149999999999949</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="23">
         <v>86.149999999999892</v>
       </c>
-      <c r="R21" s="23">
+      <c r="S21" s="23">
         <v>86.149999999999949</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -1731,50 +4561,50 @@
         <v>350</v>
       </c>
       <c r="E22" s="7">
-        <f>B22*$J$2</f>
+        <f t="shared" si="0"/>
         <v>44367.25</v>
       </c>
       <c r="F22" s="7">
-        <f>C22*$K$2</f>
+        <f t="shared" si="1"/>
         <v>8352.75</v>
       </c>
       <c r="G22" s="34">
-        <f>D22*$L$2</f>
+        <f t="shared" si="2"/>
         <v>17500</v>
       </c>
       <c r="H22" s="27">
-        <f>SUM(E22:G22)</f>
+        <f t="shared" si="3"/>
         <v>70220</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="23">
+      <c r="L22" s="23">
         <v>75.250000000000114</v>
       </c>
-      <c r="L22" s="23">
+      <c r="M22" s="23">
         <v>9.9510547595659952E-14</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="23">
         <v>756201245176165.25</v>
       </c>
-      <c r="N22" s="23">
+      <c r="O22" s="23">
         <v>4.8255945746410355E-286</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <v>75.249999999999901</v>
       </c>
-      <c r="P22" s="23">
+      <c r="Q22" s="23">
         <v>75.250000000000327</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="23">
         <v>75.249999999999901</v>
       </c>
-      <c r="R22" s="23">
+      <c r="S22" s="23">
         <v>75.250000000000327</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>22</v>
       </c>
@@ -1788,50 +4618,50 @@
         <v>340</v>
       </c>
       <c r="E23" s="7">
-        <f>B23*$J$2</f>
+        <f t="shared" si="0"/>
         <v>44194.950000000004</v>
       </c>
       <c r="F23" s="7">
-        <f>C23*$K$2</f>
+        <f t="shared" si="1"/>
         <v>8804.25</v>
       </c>
       <c r="G23" s="32">
-        <f>D23*$L$2</f>
+        <f t="shared" si="2"/>
         <v>17000</v>
       </c>
       <c r="H23" s="27">
-        <f>SUM(E23:G23)</f>
+        <f t="shared" si="3"/>
         <v>69999.200000000012</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="24">
+      <c r="L23" s="24">
         <v>50.00000000000005</v>
       </c>
-      <c r="L23" s="24">
+      <c r="M23" s="24">
         <v>4.177909768754178E-14</v>
       </c>
-      <c r="M23" s="24">
+      <c r="N23" s="24">
         <v>1196770700361719</v>
       </c>
-      <c r="N23" s="24">
+      <c r="O23" s="24">
         <v>4.9668338422374312E-290</v>
       </c>
-      <c r="O23" s="24">
+      <c r="P23" s="24">
         <v>49.999999999999964</v>
       </c>
-      <c r="P23" s="24">
+      <c r="Q23" s="24">
         <v>50.000000000000135</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="R23" s="24">
         <v>49.999999999999964</v>
       </c>
-      <c r="R23" s="24">
+      <c r="S23" s="24">
         <v>50.000000000000135</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -1845,23 +4675,23 @@
         <v>325</v>
       </c>
       <c r="E24" s="7">
-        <f>B24*$J$2</f>
+        <f t="shared" si="0"/>
         <v>43419.600000000006</v>
       </c>
       <c r="F24" s="7">
-        <f>C24*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9406.25</v>
       </c>
       <c r="G24" s="32">
-        <f>D24*$L$2</f>
+        <f t="shared" si="2"/>
         <v>16250</v>
       </c>
       <c r="H24" s="27">
-        <f>SUM(E24:G24)</f>
+        <f t="shared" si="3"/>
         <v>69075.850000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -1875,89 +4705,382 @@
         <v>337</v>
       </c>
       <c r="E25" s="13">
-        <f>B25*$J$2</f>
+        <f t="shared" si="0"/>
         <v>41955.05</v>
       </c>
       <c r="F25" s="13">
-        <f>C25*$K$2</f>
+        <f t="shared" si="1"/>
         <v>9782.5</v>
       </c>
       <c r="G25" s="35">
-        <f>D25*$L$2</f>
+        <f t="shared" si="2"/>
         <v>16850</v>
       </c>
       <c r="H25" s="30">
-        <f>SUM(E25:G25)</f>
+        <f t="shared" si="3"/>
         <v>68587.55</v>
       </c>
+      <c r="K25" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K26" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
     </row>
-    <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="49" t="s">
-        <v>45</v>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0.84926887985374144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="K33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="23">
+        <v>0.72125763028802869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="K34" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0.69471073793450766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="46">
+        <f>L20+(450*L21)+(100*L22)+(350*L23)</f>
+        <v>63792.5</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="K35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="23">
+        <v>8982.6628312602697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="K36" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
-        <v>450</v>
-      </c>
-      <c r="C31" s="1">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1">
-        <v>350</v>
-      </c>
-      <c r="E31" s="48">
-        <f>B31*J2</f>
-        <v>38767.5</v>
-      </c>
-      <c r="F31" s="48">
-        <f>C31*K2</f>
-        <v>7525</v>
-      </c>
-      <c r="G31" s="48">
-        <f>D31*L2</f>
-        <v>17500</v>
-      </c>
-      <c r="H31" s="47">
-        <f>K20+(450*K21)+(100*K22)+(350*K23)</f>
-        <v>63792.5</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>43</v>
+      <c r="M39" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H32" s="47">
-        <f>SUM(E31:G31)</f>
-        <v>63792.5</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>44</v>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="46">
+        <f>L45+L46*100+L47*350</f>
+        <v>59359.213688906966</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="K40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="23">
+        <v>2</v>
+      </c>
+      <c r="M40" s="23">
+        <v>4384468200.476862</v>
+      </c>
+      <c r="N40" s="23">
+        <v>2192234100.238431</v>
+      </c>
+      <c r="O40" s="23">
+        <v>27.169192562471977</v>
+      </c>
+      <c r="P40" s="23">
+        <v>1.4949661955685317E-6</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K41" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="23">
+        <v>21</v>
+      </c>
+      <c r="M41" s="23">
+        <v>1694452862.3422</v>
+      </c>
+      <c r="N41" s="23">
+        <v>80688231.540104762</v>
+      </c>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="K42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="24">
+        <v>23</v>
+      </c>
+      <c r="M42" s="24">
+        <v>6078921062.8190622</v>
+      </c>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K45" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="23">
+        <v>-44878.489476167553</v>
+      </c>
+      <c r="M45" s="23">
+        <v>14509.801411696053</v>
+      </c>
+      <c r="N45" s="23">
+        <v>-3.0929775124276975</v>
+      </c>
+      <c r="O45" s="23">
+        <v>5.511446982584124E-3</v>
+      </c>
+      <c r="P45" s="23">
+        <v>-75053.273376179903</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>-14703.705576155207</v>
+      </c>
+      <c r="R45" s="23">
+        <v>-75053.273376179903</v>
+      </c>
+      <c r="S45" s="23">
+        <v>-14703.705576155207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="23">
+        <v>443.98978470068039</v>
+      </c>
+      <c r="M46" s="23">
+        <v>77.178811723945628</v>
+      </c>
+      <c r="N46" s="23">
+        <v>5.7527419091233218</v>
+      </c>
+      <c r="O46" s="23">
+        <v>1.0382142054281222E-5</v>
+      </c>
+      <c r="P46" s="23">
+        <v>283.48765931993205</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>604.49191008142873</v>
+      </c>
+      <c r="R46" s="23">
+        <v>283.48765931993205</v>
+      </c>
+      <c r="S46" s="23">
+        <v>604.49191008142873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="24">
+        <v>170.96778484287566</v>
+      </c>
+      <c r="M47" s="24">
+        <v>38.65812597811297</v>
+      </c>
+      <c r="N47" s="24">
+        <v>4.422557496441299</v>
+      </c>
+      <c r="O47" s="24">
+        <v>2.3656635169694811E-4</v>
+      </c>
+      <c r="P47" s="24">
+        <v>90.573810847565142</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>251.36175883818618</v>
+      </c>
+      <c r="R47" s="24">
+        <v>90.573810847565142</v>
+      </c>
+      <c r="S47" s="24">
+        <v>251.36175883818618</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H25">
@@ -1965,11 +5088,19 @@
       <sortCondition ref="A1:A25"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A33:I34"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>